--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42/metrics/Trial_90__Reeval_Sobol_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42/metrics/Trial_90__Reeval_Sobol_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -6094,7 +6094,7 @@
                   <c:v>358.6767578125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>351.9276733398438</c:v>
+                  <c:v>351.9276428222656</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>369.7529602050781</c:v>
@@ -6139,7 +6139,7 @@
                   <c:v>357.8606262207031</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>342.4013671875</c:v>
+                  <c:v>342.4013366699219</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>359.4105834960938</c:v>
@@ -6148,13 +6148,13 @@
                   <c:v>356.5613708496094</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>366.0941467285156</c:v>
+                  <c:v>366.0941772460938</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>353.6483764648438</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>358.9335021972656</c:v>
+                  <c:v>358.9334716796875</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>347.67138671875</c:v>
@@ -6178,7 +6178,7 @@
                   <c:v>356.3455810546875</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>332.218994140625</c:v>
+                  <c:v>332.2190246582031</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>349.6636352539062</c:v>
@@ -6202,22 +6202,22 @@
                   <c:v>345.6109924316406</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>338.8753662109375</c:v>
+                  <c:v>338.8753967285156</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>353.4573364257812</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>357.978759765625</c:v>
+                  <c:v>357.9787292480469</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>363.5606384277344</c:v>
+                  <c:v>363.5606689453125</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>342.9338684082031</c:v>
+                  <c:v>342.9338989257812</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>342.3104248046875</c:v>
+                  <c:v>342.3103942871094</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>340.9632263183594</c:v>
@@ -6247,7 +6247,7 @@
                   <c:v>343.1774597167969</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>342.1699829101562</c:v>
+                  <c:v>342.1699523925781</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>354.4989013671875</c:v>
@@ -6277,7 +6277,7 @@
                   <c:v>353.9759826660156</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>359.1828002929688</c:v>
+                  <c:v>359.1828308105469</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>353.8887023925781</c:v>
@@ -6289,7 +6289,7 @@
                   <c:v>354.9372253417969</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>357.7464294433594</c:v>
+                  <c:v>357.7464599609375</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>358.5156860351562</c:v>
@@ -6301,7 +6301,7 @@
                   <c:v>343.2467956542969</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>358.8026123046875</c:v>
+                  <c:v>358.8025817871094</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>347.025146484375</c:v>
@@ -6337,7 +6337,7 @@
                   <c:v>354.8410339355469</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>352.2339172363281</c:v>
+                  <c:v>352.23388671875</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>350.6061706542969</c:v>
@@ -6389,7 +6389,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6404,7 +6404,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6433,7 +6433,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6448,7 +6448,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6477,7 +6477,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6492,7 +6492,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -7004,13 +7004,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H810"/>
+  <dimension ref="A1:S810"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7035,8 +7035,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>362.4</v>
       </c>
@@ -7061,8 +7067,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>359.544</v>
       </c>
@@ -7082,13 +7094,19 @@
         <v>344.50732421875</v>
       </c>
       <c r="G3">
+        <v>371</v>
+      </c>
+      <c r="H3">
+        <v>371</v>
+      </c>
+      <c r="R3">
         <v>370</v>
       </c>
-      <c r="H3">
+      <c r="S3">
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>358.201</v>
       </c>
@@ -7108,13 +7126,19 @@
         <v>364.2946472167969</v>
       </c>
       <c r="G4">
+        <v>371</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>370</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>355.336</v>
       </c>
@@ -7134,13 +7158,19 @@
         <v>357.33984375</v>
       </c>
       <c r="G5">
+        <v>371</v>
+      </c>
+      <c r="H5">
+        <v>371</v>
+      </c>
+      <c r="R5">
         <v>370</v>
       </c>
-      <c r="H5">
+      <c r="S5">
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>355.427</v>
       </c>
@@ -7160,13 +7190,19 @@
         <v>356.9644165039062</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>371</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>370</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>360.582</v>
       </c>
@@ -7186,13 +7222,19 @@
         <v>355.2045288085938</v>
       </c>
       <c r="G7">
+        <v>371</v>
+      </c>
+      <c r="H7">
+        <v>371</v>
+      </c>
+      <c r="R7">
         <v>370</v>
       </c>
-      <c r="H7">
+      <c r="S7">
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>357.585</v>
       </c>
@@ -7212,7 +7254,7 @@
         <v>367.0745849609375</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>338.571</v>
       </c>
@@ -7232,7 +7274,7 @@
         <v>341.0349731445312</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>355.528</v>
       </c>
@@ -7252,7 +7294,7 @@
         <v>354.1544189453125</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>362.336</v>
       </c>
@@ -7272,7 +7314,7 @@
         <v>355.0799560546875</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>356.563</v>
       </c>
@@ -7292,7 +7334,7 @@
         <v>349.7506103515625</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>330.878</v>
       </c>
@@ -7312,7 +7354,7 @@
         <v>358.6767578125</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>340.384</v>
       </c>
@@ -7329,10 +7371,10 @@
         <v>356.659</v>
       </c>
       <c r="F14">
-        <v>351.9276733398438</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>351.9276428222656</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>359.105</v>
       </c>
@@ -7352,7 +7394,7 @@
         <v>369.7529602050781</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>358</v>
       </c>
@@ -7629,7 +7671,7 @@
         <v>338.618</v>
       </c>
       <c r="F29">
-        <v>342.4013671875</v>
+        <v>342.4013366699219</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7689,7 +7731,7 @@
         <v>336.037</v>
       </c>
       <c r="F32">
-        <v>366.0941467285156</v>
+        <v>366.0941772460938</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7729,7 +7771,7 @@
         <v>361.009</v>
       </c>
       <c r="F34">
-        <v>358.9335021972656</v>
+        <v>358.9334716796875</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7889,7 +7931,7 @@
         <v>339.957</v>
       </c>
       <c r="F42">
-        <v>332.218994140625</v>
+        <v>332.2190246582031</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8049,7 +8091,7 @@
         <v>358.571</v>
       </c>
       <c r="F50">
-        <v>338.8753662109375</v>
+        <v>338.8753967285156</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8089,7 +8131,7 @@
         <v>367.914</v>
       </c>
       <c r="F52">
-        <v>357.978759765625</v>
+        <v>357.9787292480469</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8109,7 +8151,7 @@
         <v>361.705</v>
       </c>
       <c r="F53">
-        <v>363.5606384277344</v>
+        <v>363.5606689453125</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8129,7 +8171,7 @@
         <v>338.754</v>
       </c>
       <c r="F54">
-        <v>342.9338684082031</v>
+        <v>342.9338989257812</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8149,7 +8191,7 @@
         <v>365.713</v>
       </c>
       <c r="F55">
-        <v>342.3104248046875</v>
+        <v>342.3103942871094</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8349,7 +8391,7 @@
         <v>336.323</v>
       </c>
       <c r="F65">
-        <v>342.1699829101562</v>
+        <v>342.1699523925781</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8549,7 +8591,7 @@
         <v>358.371</v>
       </c>
       <c r="F75">
-        <v>359.1828002929688</v>
+        <v>359.1828308105469</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8629,7 +8671,7 @@
         <v>358.276</v>
       </c>
       <c r="F79">
-        <v>357.7464294433594</v>
+        <v>357.7464599609375</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8709,7 +8751,7 @@
         <v>357.296</v>
       </c>
       <c r="F83">
-        <v>358.8026123046875</v>
+        <v>358.8025817871094</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8949,7 +8991,7 @@
         <v>357.722</v>
       </c>
       <c r="F95">
-        <v>352.2339172363281</v>
+        <v>352.23388671875</v>
       </c>
     </row>
     <row r="96" spans="1:6">
